--- a/TP_Plasma/Datas/P_AIR.xlsx
+++ b/TP_Plasma/Datas/P_AIR.xlsx
@@ -14,45 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>Air01</t>
   </si>
   <si>
-    <t>7.4e-3</t>
-  </si>
-  <si>
     <t>rien</t>
   </si>
   <si>
     <t>Air02</t>
   </si>
   <si>
-    <t>9.8e-3</t>
-  </si>
-  <si>
     <t>Air03</t>
   </si>
   <si>
-    <t>1.1e-2</t>
-  </si>
-  <si>
     <t>Air04</t>
   </si>
   <si>
-    <t>1.5e-2</t>
-  </si>
-  <si>
     <t>Air05</t>
   </si>
   <si>
-    <t>1.8e-2</t>
-  </si>
-  <si>
     <t>Air06</t>
-  </si>
-  <si>
-    <t>2.3e-2</t>
   </si>
   <si>
     <t>Air07</t>
@@ -316,13 +298,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -354,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -362,20 +344,23 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,12 +670,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,439 +683,439 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+      <c r="C11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+      <c r="C16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+      <c r="C17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C48" s="1"/>
     </row>
@@ -1166,7 +1151,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="1"/>
     </row>
   </sheetData>
